--- a/builds/development/data/_raw/maindata.xlsx
+++ b/builds/development/data/_raw/maindata.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="778">
   <si>
     <t>Senator Name</t>
   </si>
@@ -2331,13 +2331,37 @@
   </si>
   <si>
     <t>Source: Minnesota Campaign Finance Disclosure Board</t>
+  </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Minnesota Campaign Finance Disclosure Board</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>Per diem expenses by Minnesota senator, 2016</t>
+  </si>
+  <si>
+    <t>Per diem expenses by Minnesota representative, 2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2370,6 +2394,25 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2388,10 +2431,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -2405,8 +2452,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10574,26 +10626,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>2016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="13" customFormat="1">
+      <c r="A6" s="13" t="s">
+        <v>770</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>771</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>774</v>
+      </c>
+      <c r="B7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C7" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>775</v>
+      </c>
+      <c r="B8" t="s">
+        <v>777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
